--- a/public/sample-files/user-upload-sample-file.xlsx
+++ b/public/sample-files/user-upload-sample-file.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\digital-lms\public\sample-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\lms\public\sample-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A805A97-B574-4E93-8138-2E737B1DB4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641C5D8B-32EC-461A-99AD-A750B121FFDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{112958AB-30AE-44D4-8C7F-C53EB74B78A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8505" xr2:uid="{A7F8B422-7AB2-4EBC-9E52-5BE7BFC3BBDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>SL No.</t>
   </si>
@@ -36,52 +36,37 @@
     <t>First Name*</t>
   </si>
   <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
     <t>Email*</t>
   </si>
   <si>
-    <t>Mobile Number*
-(10 digit only)</t>
-  </si>
-  <si>
-    <t>DOB*
-(DD-MMM-YY)</t>
-  </si>
-  <si>
-    <t>DOJ*
-(DD-MMM-YY)</t>
+    <t>Mobile Number*</t>
   </si>
   <si>
     <t>Designation*</t>
   </si>
   <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
     <t>Gender*</t>
   </si>
   <si>
-    <t>Location*</t>
-  </si>
-  <si>
-    <t>LOB</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>QD8950</t>
   </si>
   <si>
     <t>Murali</t>
   </si>
   <si>
-    <t>Mohan</t>
+    <t>kgvishnoi.it@gmail.com</t>
   </si>
   <si>
     <t>Training Manager</t>
@@ -90,9 +75,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Vadodra</t>
-  </si>
-  <si>
     <t>QD6708</t>
   </si>
   <si>
@@ -102,26 +84,28 @@
     <t>Sudhan</t>
   </si>
   <si>
+    <t>developerpalak@gmail.com</t>
+  </si>
+  <si>
     <t>Trainer</t>
-  </si>
-  <si>
-    <t>kgvishnoi.it@gmail.com</t>
-  </si>
-  <si>
-    <t>developerpalak@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,14 +122,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,27 +207,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,11 +232,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,9 +246,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,16 +561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09D76C9-C863-4422-9EA4-D2C4DF833A80}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C534C55-876D-4955-9411-F2322915B4B9}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,19 +583,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -637,105 +604,70 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="F2" s="6">
+        <v>9876543217</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2345678987</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="7">
-        <v>9876543217</v>
-      </c>
-      <c r="H2" s="9">
-        <v>36349</v>
-      </c>
-      <c r="I2" s="10">
-        <v>45047</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2345678987</v>
-      </c>
-      <c r="H3" s="9">
-        <v>37153</v>
-      </c>
-      <c r="I3" s="10">
-        <v>45047</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{3838D6F0-D433-4045-89C8-751ECD92A2D8}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{D8C7B15D-CA70-42AA-B556-AC79DDC3AF2B}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{14D300C0-41A2-4425-8933-05A6F74B7379}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7CD364CF-BFD1-470F-8261-29F2535831AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>